--- a/Code/R/PerfSearch_ClassificationIT_comb_pseAAC_special_SMOTED.xlsx
+++ b/Code/R/PerfSearch_ClassificationIT_comb_pseAAC_special_SMOTED.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="PerfSearch_ClassificationIT_com" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerfSearch_ClassificationIT_com!$A$1:$G$402</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -850,13 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F401"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -892,8 +898,12 @@
       <c r="F2">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f>IF(F2=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -912,8 +922,12 @@
       <c r="F3">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(F3=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,8 +946,12 @@
       <c r="F4">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -952,8 +970,12 @@
       <c r="F5">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -972,8 +994,12 @@
       <c r="F6">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -992,8 +1018,12 @@
       <c r="F7">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1012,8 +1042,12 @@
       <c r="F8">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1032,8 +1066,12 @@
       <c r="F9">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1052,8 +1090,12 @@
       <c r="F10">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1072,8 +1114,12 @@
       <c r="F11">
         <v>0.69509522046285599</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1092,8 +1138,12 @@
       <c r="F12">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1112,8 +1162,12 @@
       <c r="F13">
         <v>0.710407239819005</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1132,8 +1186,12 @@
       <c r="F14">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1152,8 +1210,12 @@
       <c r="F15">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1172,8 +1234,12 @@
       <c r="F16">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1192,8 +1258,12 @@
       <c r="F17">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1212,8 +1282,12 @@
       <c r="F18">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1232,8 +1306,12 @@
       <c r="F19">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1252,8 +1330,12 @@
       <c r="F20">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1272,8 +1354,12 @@
       <c r="F21">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1292,8 +1378,12 @@
       <c r="F22">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1312,8 +1402,12 @@
       <c r="F23">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1332,8 +1426,12 @@
       <c r="F24">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1352,8 +1450,12 @@
       <c r="F25">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1372,8 +1474,12 @@
       <c r="F26">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1392,8 +1498,12 @@
       <c r="F27">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1412,8 +1522,12 @@
       <c r="F28">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1432,8 +1546,12 @@
       <c r="F29">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1452,8 +1570,12 @@
       <c r="F30">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1472,8 +1594,12 @@
       <c r="F31">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1492,8 +1618,12 @@
       <c r="F32">
         <v>0.68950549552487606</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1512,8 +1642,12 @@
       <c r="F33">
         <v>0.68950549552487606</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1532,8 +1666,12 @@
       <c r="F34">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1552,8 +1690,12 @@
       <c r="F35">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1572,8 +1714,12 @@
       <c r="F36">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1592,8 +1738,12 @@
       <c r="F37">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1612,8 +1762,12 @@
       <c r="F38">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1632,8 +1786,12 @@
       <c r="F39">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1652,8 +1810,12 @@
       <c r="F40">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1672,8 +1834,12 @@
       <c r="F41">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1692,8 +1858,12 @@
       <c r="F42">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1712,8 +1882,12 @@
       <c r="F43">
         <v>0.69509522046285599</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1732,8 +1906,12 @@
       <c r="F44">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1752,8 +1930,12 @@
       <c r="F45">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1772,8 +1954,12 @@
       <c r="F46">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1792,8 +1978,12 @@
       <c r="F47">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1812,8 +2002,12 @@
       <c r="F48">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1832,8 +2026,12 @@
       <c r="F49">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1852,8 +2050,12 @@
       <c r="F50">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1872,8 +2074,12 @@
       <c r="F51">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1892,8 +2098,12 @@
       <c r="F52">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1912,8 +2122,12 @@
       <c r="F53">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1932,8 +2146,12 @@
       <c r="F54">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1952,8 +2170,12 @@
       <c r="F55">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1972,8 +2194,12 @@
       <c r="F56">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1992,8 +2218,12 @@
       <c r="F57">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2012,8 +2242,12 @@
       <c r="F58">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2032,8 +2266,12 @@
       <c r="F59">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2052,8 +2290,12 @@
       <c r="F60">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2072,8 +2314,12 @@
       <c r="F61">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2092,8 +2338,12 @@
       <c r="F62">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2112,8 +2362,12 @@
       <c r="F63">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2132,8 +2386,12 @@
       <c r="F64">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2152,8 +2410,12 @@
       <c r="F65">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2172,8 +2434,12 @@
       <c r="F66">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2192,8 +2458,12 @@
       <c r="F67">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">IF(F67=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2212,8 +2482,12 @@
       <c r="F68">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2232,8 +2506,12 @@
       <c r="F69">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2252,8 +2530,12 @@
       <c r="F70">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2272,8 +2554,12 @@
       <c r="F71">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2292,8 +2578,12 @@
       <c r="F72">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2312,8 +2602,12 @@
       <c r="F73">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2332,8 +2626,12 @@
       <c r="F74">
         <v>0.69758943229006898</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2352,8 +2650,12 @@
       <c r="F75">
         <v>0.72245561121594504</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2372,8 +2674,12 @@
       <c r="F76">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2392,8 +2698,12 @@
       <c r="F77">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2412,8 +2722,12 @@
       <c r="F78">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2432,8 +2746,12 @@
       <c r="F79">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2452,8 +2770,12 @@
       <c r="F80">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2472,8 +2794,12 @@
       <c r="F81">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2492,8 +2818,12 @@
       <c r="F82">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2512,8 +2842,12 @@
       <c r="F83">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2532,8 +2866,12 @@
       <c r="F84">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2552,8 +2890,12 @@
       <c r="F85">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2572,8 +2914,12 @@
       <c r="F86">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2592,8 +2938,12 @@
       <c r="F87">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2612,8 +2962,12 @@
       <c r="F88">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2632,8 +2986,12 @@
       <c r="F89">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2652,8 +3010,12 @@
       <c r="F90">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2672,8 +3034,12 @@
       <c r="F91">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2692,8 +3058,12 @@
       <c r="F92">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2712,8 +3082,12 @@
       <c r="F93">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2732,8 +3106,12 @@
       <c r="F94">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2752,8 +3130,12 @@
       <c r="F95">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2772,8 +3154,12 @@
       <c r="F96">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2792,8 +3178,12 @@
       <c r="F97">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2812,8 +3202,12 @@
       <c r="F98">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2832,8 +3226,12 @@
       <c r="F99">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2852,8 +3250,12 @@
       <c r="F100">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2872,8 +3274,12 @@
       <c r="F101">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2892,8 +3298,12 @@
       <c r="F102">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2912,8 +3322,12 @@
       <c r="F103">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2932,8 +3346,12 @@
       <c r="F104">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2952,8 +3370,12 @@
       <c r="F105">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2972,8 +3394,12 @@
       <c r="F106">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2992,8 +3418,12 @@
       <c r="F107">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3012,8 +3442,12 @@
       <c r="F108">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3032,8 +3466,12 @@
       <c r="F109">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3052,8 +3490,12 @@
       <c r="F110">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3072,8 +3514,12 @@
       <c r="F111">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3092,8 +3538,12 @@
       <c r="F112">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3112,8 +3562,12 @@
       <c r="F113">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3132,8 +3586,12 @@
       <c r="F114">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3152,8 +3610,12 @@
       <c r="F115">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3172,8 +3634,12 @@
       <c r="F116">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3192,8 +3658,12 @@
       <c r="F117">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3212,8 +3682,12 @@
       <c r="F118">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3232,8 +3706,12 @@
       <c r="F119">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3252,8 +3730,12 @@
       <c r="F120">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3272,8 +3754,12 @@
       <c r="F121">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3292,8 +3778,12 @@
       <c r="F122">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3312,8 +3802,12 @@
       <c r="F123">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3332,8 +3826,12 @@
       <c r="F124">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3352,8 +3850,12 @@
       <c r="F125">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3372,8 +3874,12 @@
       <c r="F126">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3392,8 +3898,12 @@
       <c r="F127">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3412,8 +3922,12 @@
       <c r="F128">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3432,8 +3946,12 @@
       <c r="F129">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3452,8 +3970,12 @@
       <c r="F130">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3472,8 +3994,12 @@
       <c r="F131">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G194" si="2">IF(F131=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3492,8 +4018,12 @@
       <c r="F132">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3512,8 +4042,12 @@
       <c r="F133">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3532,8 +4066,12 @@
       <c r="F134">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3552,8 +4090,12 @@
       <c r="F135">
         <v>0.69509522046285599</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3572,8 +4114,12 @@
       <c r="F136">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3592,8 +4138,12 @@
       <c r="F137">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3612,8 +4162,12 @@
       <c r="F138">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3632,8 +4186,12 @@
       <c r="F139">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3652,8 +4210,12 @@
       <c r="F140">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3672,8 +4234,12 @@
       <c r="F141">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3692,8 +4258,12 @@
       <c r="F142">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3712,8 +4282,12 @@
       <c r="F143">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3732,8 +4306,12 @@
       <c r="F144">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3752,8 +4330,12 @@
       <c r="F145">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3772,8 +4354,12 @@
       <c r="F146">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3792,8 +4378,12 @@
       <c r="F147">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3812,8 +4402,12 @@
       <c r="F148">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3832,8 +4426,12 @@
       <c r="F149">
         <v>0.68950549552487606</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3852,8 +4450,12 @@
       <c r="F150">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3872,8 +4474,12 @@
       <c r="F151">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3892,8 +4498,12 @@
       <c r="F152">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3912,8 +4522,12 @@
       <c r="F153">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3932,8 +4546,12 @@
       <c r="F154">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3952,8 +4570,12 @@
       <c r="F155">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3972,8 +4594,12 @@
       <c r="F156">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3992,8 +4618,12 @@
       <c r="F157">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4012,8 +4642,12 @@
       <c r="F158">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4032,8 +4666,12 @@
       <c r="F159">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4052,8 +4690,12 @@
       <c r="F160">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4072,8 +4714,12 @@
       <c r="F161">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4092,8 +4738,12 @@
       <c r="F162">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4112,8 +4762,12 @@
       <c r="F163">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4132,8 +4786,12 @@
       <c r="F164">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4152,8 +4810,12 @@
       <c r="F165">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4172,8 +4834,12 @@
       <c r="F166">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4192,8 +4858,12 @@
       <c r="F167">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4212,8 +4882,12 @@
       <c r="F168">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4232,8 +4906,12 @@
       <c r="F169">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4252,8 +4930,12 @@
       <c r="F170">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4272,8 +4954,12 @@
       <c r="F171">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4292,8 +4978,12 @@
       <c r="F172">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4312,8 +5002,12 @@
       <c r="F173">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4332,8 +5026,12 @@
       <c r="F174">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4352,8 +5050,12 @@
       <c r="F175">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4372,8 +5074,12 @@
       <c r="F176">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4392,8 +5098,12 @@
       <c r="F177">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4412,8 +5122,12 @@
       <c r="F178">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4432,8 +5146,12 @@
       <c r="F179">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4452,8 +5170,12 @@
       <c r="F180">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4472,8 +5194,12 @@
       <c r="F181">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4492,8 +5218,12 @@
       <c r="F182">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4512,8 +5242,12 @@
       <c r="F183">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4532,8 +5266,12 @@
       <c r="F184">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4552,8 +5290,12 @@
       <c r="F185">
         <v>0.79940221476744</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4572,8 +5314,12 @@
       <c r="F186">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4592,8 +5338,12 @@
       <c r="F187">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4612,8 +5362,12 @@
       <c r="F188">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4632,8 +5386,12 @@
       <c r="F189">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4652,8 +5410,12 @@
       <c r="F190">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4672,8 +5434,12 @@
       <c r="F191">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4692,8 +5458,12 @@
       <c r="F192">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4712,8 +5482,12 @@
       <c r="F193">
         <v>0.72245561121594504</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4732,8 +5506,12 @@
       <c r="F194">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4752,8 +5530,12 @@
       <c r="F195">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G258" si="3">IF(F195=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4772,8 +5554,12 @@
       <c r="F196">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4792,8 +5578,12 @@
       <c r="F197">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4812,8 +5602,12 @@
       <c r="F198">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4832,8 +5626,12 @@
       <c r="F199">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4852,8 +5650,12 @@
       <c r="F200">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4872,8 +5674,12 @@
       <c r="F201">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4892,8 +5698,12 @@
       <c r="F202">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4912,8 +5722,12 @@
       <c r="F203">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4932,8 +5746,12 @@
       <c r="F204">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4952,8 +5770,12 @@
       <c r="F205">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4972,8 +5794,12 @@
       <c r="F206">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4992,8 +5818,12 @@
       <c r="F207">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5012,8 +5842,12 @@
       <c r="F208">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5032,8 +5866,12 @@
       <c r="F209">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5052,8 +5890,12 @@
       <c r="F210">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5072,8 +5914,12 @@
       <c r="F211">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5092,8 +5938,12 @@
       <c r="F212">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5112,8 +5962,12 @@
       <c r="F213">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5132,8 +5986,12 @@
       <c r="F214">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5152,8 +6010,12 @@
       <c r="F215">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5172,8 +6034,12 @@
       <c r="F216">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5192,8 +6058,12 @@
       <c r="F217">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5212,8 +6082,12 @@
       <c r="F218">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5232,8 +6106,12 @@
       <c r="F219">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5252,8 +6130,12 @@
       <c r="F220">
         <v>0.74885533564600504</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5272,8 +6154,12 @@
       <c r="F221">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5292,8 +6178,12 @@
       <c r="F222">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5312,8 +6202,12 @@
       <c r="F223">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5332,8 +6226,12 @@
       <c r="F224">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5352,8 +6250,12 @@
       <c r="F225">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5372,8 +6274,12 @@
       <c r="F226">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5392,8 +6298,12 @@
       <c r="F227">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5412,8 +6322,12 @@
       <c r="F228">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5432,8 +6346,12 @@
       <c r="F229">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5452,8 +6370,12 @@
       <c r="F230">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5472,8 +6394,12 @@
       <c r="F231">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5492,8 +6418,12 @@
       <c r="F232">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5512,8 +6442,12 @@
       <c r="F233">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5532,8 +6466,12 @@
       <c r="F234">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5552,8 +6490,12 @@
       <c r="F235">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5572,8 +6514,12 @@
       <c r="F236">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5592,8 +6538,12 @@
       <c r="F237">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5612,8 +6562,12 @@
       <c r="F238">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5632,8 +6586,12 @@
       <c r="F239">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5652,8 +6610,12 @@
       <c r="F240">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5672,8 +6634,12 @@
       <c r="F241">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5692,8 +6658,12 @@
       <c r="F242">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5712,8 +6682,12 @@
       <c r="F243">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5732,8 +6706,12 @@
       <c r="F244">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5752,8 +6730,12 @@
       <c r="F245">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5772,8 +6754,12 @@
       <c r="F246">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5792,8 +6778,12 @@
       <c r="F247">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5812,8 +6802,12 @@
       <c r="F248">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5832,8 +6826,12 @@
       <c r="F249">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5852,8 +6850,12 @@
       <c r="F250">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5872,8 +6874,12 @@
       <c r="F251">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5892,8 +6898,12 @@
       <c r="F252">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5912,8 +6922,12 @@
       <c r="F253">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5932,8 +6946,12 @@
       <c r="F254">
         <v>0.710407239819005</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5952,8 +6970,12 @@
       <c r="F255">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5972,8 +6994,12 @@
       <c r="F256">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5992,8 +7018,12 @@
       <c r="F257">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" t="str">
+        <f t="shared" si="3"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6012,8 +7042,12 @@
       <c r="F258">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6032,8 +7066,12 @@
       <c r="F259">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" t="str">
+        <f t="shared" ref="G259:G322" si="4">IF(F259=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6052,8 +7090,12 @@
       <c r="F260">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6072,8 +7114,12 @@
       <c r="F261">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6092,8 +7138,12 @@
       <c r="F262">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6112,8 +7162,12 @@
       <c r="F263">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6132,8 +7186,12 @@
       <c r="F264">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6152,8 +7210,12 @@
       <c r="F265">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6172,8 +7234,12 @@
       <c r="F266">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6192,8 +7258,12 @@
       <c r="F267">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6212,8 +7282,12 @@
       <c r="F268">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6232,8 +7306,12 @@
       <c r="F269">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6252,8 +7330,12 @@
       <c r="F270">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6272,8 +7354,12 @@
       <c r="F271">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6292,8 +7378,12 @@
       <c r="F272">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6312,8 +7402,12 @@
       <c r="F273">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6332,8 +7426,12 @@
       <c r="F274">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6352,8 +7450,12 @@
       <c r="F275">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6372,8 +7474,12 @@
       <c r="F276">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6392,8 +7498,12 @@
       <c r="F277">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6412,8 +7522,12 @@
       <c r="F278">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6432,8 +7546,12 @@
       <c r="F279">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6452,8 +7570,12 @@
       <c r="F280">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6472,8 +7594,12 @@
       <c r="F281">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6492,8 +7618,12 @@
       <c r="F282">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6512,8 +7642,12 @@
       <c r="F283">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6532,8 +7666,12 @@
       <c r="F284">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6552,8 +7690,12 @@
       <c r="F285">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6572,8 +7714,12 @@
       <c r="F286">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6592,8 +7738,12 @@
       <c r="F287">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6612,8 +7762,12 @@
       <c r="F288">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6632,8 +7786,12 @@
       <c r="F289">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6652,8 +7810,12 @@
       <c r="F290">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6672,8 +7834,12 @@
       <c r="F291">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6692,8 +7858,12 @@
       <c r="F292">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6712,8 +7882,12 @@
       <c r="F293">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6732,8 +7906,12 @@
       <c r="F294">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6752,8 +7930,12 @@
       <c r="F295">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6772,8 +7954,12 @@
       <c r="F296">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6792,8 +7978,12 @@
       <c r="F297">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6812,8 +8002,12 @@
       <c r="F298">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6832,8 +8026,12 @@
       <c r="F299">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6852,8 +8050,12 @@
       <c r="F300">
         <v>0.710407239819005</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6872,8 +8074,12 @@
       <c r="F301">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6892,8 +8098,12 @@
       <c r="F302">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6912,8 +8122,12 @@
       <c r="F303">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6932,8 +8146,12 @@
       <c r="F304">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6952,8 +8170,12 @@
       <c r="F305">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6972,8 +8194,12 @@
       <c r="F306">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6992,8 +8218,12 @@
       <c r="F307">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7012,8 +8242,12 @@
       <c r="F308">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7032,8 +8266,12 @@
       <c r="F309">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7052,8 +8290,12 @@
       <c r="F310">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7072,8 +8314,12 @@
       <c r="F311">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7092,8 +8338,12 @@
       <c r="F312">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7112,8 +8362,12 @@
       <c r="F313">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7132,8 +8386,12 @@
       <c r="F314">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7152,8 +8410,12 @@
       <c r="F315">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7172,8 +8434,12 @@
       <c r="F316">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7192,8 +8458,12 @@
       <c r="F317">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7212,8 +8482,12 @@
       <c r="F318">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7232,8 +8506,12 @@
       <c r="F319">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7252,8 +8530,12 @@
       <c r="F320">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7272,8 +8554,12 @@
       <c r="F321">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321" t="str">
+        <f t="shared" si="4"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7292,8 +8578,12 @@
       <c r="F322">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7312,8 +8602,12 @@
       <c r="F323">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323" t="str">
+        <f t="shared" ref="G323:G386" si="5">IF(F323=0.801222841635236,"BEST","")</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7332,8 +8626,12 @@
       <c r="F324">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="G324" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7352,8 +8650,12 @@
       <c r="F325">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7372,8 +8674,12 @@
       <c r="F326">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7392,8 +8698,12 @@
       <c r="F327">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" hidden="1">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7412,8 +8722,12 @@
       <c r="F328">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7432,8 +8746,12 @@
       <c r="F329">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7452,8 +8770,12 @@
       <c r="F330">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7472,8 +8794,12 @@
       <c r="F331">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="G331" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:7" hidden="1">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7492,8 +8818,12 @@
       <c r="F332">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7512,8 +8842,12 @@
       <c r="F333">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="G333" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7532,8 +8866,12 @@
       <c r="F334">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7552,8 +8890,12 @@
       <c r="F335">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7572,8 +8914,12 @@
       <c r="F336">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" hidden="1">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7592,8 +8938,12 @@
       <c r="F337">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7612,8 +8962,12 @@
       <c r="F338">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7632,8 +8986,12 @@
       <c r="F339">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7652,8 +9010,12 @@
       <c r="F340">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7672,8 +9034,12 @@
       <c r="F341">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7692,8 +9058,12 @@
       <c r="F342">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7712,8 +9082,12 @@
       <c r="F343">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7732,8 +9106,12 @@
       <c r="F344">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7752,8 +9130,12 @@
       <c r="F345">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7772,8 +9154,12 @@
       <c r="F346">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7792,8 +9178,12 @@
       <c r="F347">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" hidden="1">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7812,8 +9202,12 @@
       <c r="F348">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7832,8 +9226,12 @@
       <c r="F349">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7852,8 +9250,12 @@
       <c r="F350">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="G350" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7872,8 +9274,12 @@
       <c r="F351">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="G351" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:7" hidden="1">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7892,8 +9298,12 @@
       <c r="F352">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="G352" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7912,8 +9322,12 @@
       <c r="F353">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="G353" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7932,8 +9346,12 @@
       <c r="F354">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="G354" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7952,8 +9370,12 @@
       <c r="F355">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="G355" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7972,8 +9394,12 @@
       <c r="F356">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="G356" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7992,8 +9418,12 @@
       <c r="F357">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="G357" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8012,8 +9442,12 @@
       <c r="F358">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="G358" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8032,8 +9466,12 @@
       <c r="F359">
         <v>0.710407239819005</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="G359" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8052,8 +9490,12 @@
       <c r="F360">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="G360" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8072,8 +9514,12 @@
       <c r="F361">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="G361" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8092,8 +9538,12 @@
       <c r="F362">
         <v>0.75248232383067404</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="G362" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8112,8 +9562,12 @@
       <c r="F363">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="G363" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8132,8 +9586,12 @@
       <c r="F364">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="G364" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8152,8 +9610,12 @@
       <c r="F365">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="G365" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8172,8 +9634,12 @@
       <c r="F366">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="G366" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8192,8 +9658,12 @@
       <c r="F367">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="G367" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8212,8 +9682,12 @@
       <c r="F368">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="G368" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8232,8 +9706,12 @@
       <c r="F369">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="G369" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370">
         <v>369</v>
       </c>
@@ -8252,8 +9730,12 @@
       <c r="F370">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="G370" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371">
         <v>370</v>
       </c>
@@ -8272,8 +9754,12 @@
       <c r="F371">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="G371" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>371</v>
       </c>
@@ -8292,8 +9778,12 @@
       <c r="F372">
         <v>0.80122284163523605</v>
       </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="G372" t="str">
+        <f t="shared" si="5"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373">
         <v>372</v>
       </c>
@@ -8312,8 +9802,12 @@
       <c r="F373">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="G373" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1">
       <c r="A374">
         <v>373</v>
       </c>
@@ -8332,8 +9826,12 @@
       <c r="F374">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="G374" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1">
       <c r="A375">
         <v>374</v>
       </c>
@@ -8352,8 +9850,12 @@
       <c r="F375">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="G375" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1">
       <c r="A376">
         <v>375</v>
       </c>
@@ -8372,8 +9874,12 @@
       <c r="F376">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="G376" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1">
       <c r="A377">
         <v>376</v>
       </c>
@@ -8392,8 +9898,12 @@
       <c r="F377">
         <v>0.74862511341763105</v>
       </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="G377" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1">
       <c r="A378">
         <v>377</v>
       </c>
@@ -8412,8 +9922,12 @@
       <c r="F378">
         <v>0.74538597102194304</v>
       </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379">
         <v>378</v>
       </c>
@@ -8432,8 +9946,12 @@
       <c r="F379">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380">
         <v>379</v>
       </c>
@@ -8452,8 +9970,12 @@
       <c r="F380">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381">
         <v>380</v>
       </c>
@@ -8472,8 +9994,12 @@
       <c r="F381">
         <v>0.63842475544928701</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="G381" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382">
         <v>381</v>
       </c>
@@ -8492,8 +10018,12 @@
       <c r="F382">
         <v>0.69410473022319796</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="G382" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383">
         <v>382</v>
       </c>
@@ -8512,8 +10042,12 @@
       <c r="F383">
         <v>0.65298052894397296</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384">
         <v>383</v>
       </c>
@@ -8532,8 +10066,12 @@
       <c r="F384">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="G384" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385">
         <v>384</v>
       </c>
@@ -8552,8 +10090,12 @@
       <c r="F385">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="G385" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386">
         <v>385</v>
       </c>
@@ -8572,8 +10114,12 @@
       <c r="F386">
         <v>0.65298052894397296</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387">
         <v>386</v>
       </c>
@@ -8592,8 +10138,12 @@
       <c r="F387">
         <v>0.63842475544928701</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387" t="str">
+        <f t="shared" ref="G387:G401" si="6">IF(F387=0.801222841635236,"BEST","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388">
         <v>387</v>
       </c>
@@ -8612,8 +10162,12 @@
       <c r="F388">
         <v>0.65298052894397296</v>
       </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389">
         <v>388</v>
       </c>
@@ -8632,8 +10186,12 @@
       <c r="F389">
         <v>0.69646108449557698</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:7" hidden="1">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8652,8 +10210,12 @@
       <c r="F390">
         <v>0.60698279134204802</v>
       </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="G390" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:7" hidden="1">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8672,8 +10234,12 @@
       <c r="F391">
         <v>0.57659703955489405</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="G391" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:7" hidden="1">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8692,8 +10258,12 @@
       <c r="F392">
         <v>0.57659703955489405</v>
       </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="G392" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:7" hidden="1">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8712,8 +10282,12 @@
       <c r="F393">
         <v>0.63059262509446601</v>
       </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="G393" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8732,8 +10306,12 @@
       <c r="F394">
         <v>0.63705223001460298</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="G394" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:7" hidden="1">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8752,8 +10330,12 @@
       <c r="F395">
         <v>0.63705223001460298</v>
       </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="G395" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:7" hidden="1">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8772,8 +10354,12 @@
       <c r="F396">
         <v>0.57659703955489405</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="G396" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8792,8 +10378,12 @@
       <c r="F397">
         <v>0.55347873405727299</v>
       </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="G397" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:7" hidden="1">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8812,8 +10402,12 @@
       <c r="F398">
         <v>0.51734539969834104</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:7" hidden="1">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8832,8 +10426,12 @@
       <c r="F399">
         <v>0.57157399571637701</v>
       </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="G399" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:7" hidden="1">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8852,8 +10450,12 @@
       <c r="F400">
         <v>0.57659703955489405</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="G400" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8872,8 +10474,26 @@
       <c r="F401">
         <v>0.57659703955489405</v>
       </c>
+      <c r="G401" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1">
+      <c r="F402">
+        <f>MAX(F2:F401)</f>
+        <v>0.80122284163523605</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G402">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>